--- a/immoweb_scrapped.xlsx
+++ b/immoweb_scrapped.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -76,15 +73,93 @@
     <t>building_condition</t>
   </si>
   <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>4860</t>
+  </si>
+  <si>
+    <t>6001</t>
+  </si>
+  <si>
+    <t>9600</t>
+  </si>
+  <si>
+    <t>6010</t>
+  </si>
+  <si>
+    <t>7181</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>5340</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>3271</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>4870</t>
+  </si>
+  <si>
+    <t>8710</t>
+  </si>
+  <si>
+    <t>8370</t>
+  </si>
+  <si>
+    <t>5170</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>9050</t>
+  </si>
+  <si>
+    <t>APARTMENT_GROUP</t>
+  </si>
+  <si>
     <t>HOUSE</t>
   </si>
   <si>
+    <t>APARTMENT</t>
+  </si>
+  <si>
+    <t>TRIPLEX</t>
+  </si>
+  <si>
     <t>VILLA</t>
   </si>
   <si>
+    <t>FLAT_STUDIO</t>
+  </si>
+  <si>
     <t>EXCEPTIONAL_PROPERTY</t>
   </si>
   <si>
+    <t>DUPLEX</t>
+  </si>
+  <si>
     <t>FOR_SALE</t>
   </si>
   <si>
@@ -97,12 +172,18 @@
     <t>HYPER_EQUIPPED</t>
   </si>
   <si>
+    <t>USA_HYPER_EQUIPPED</t>
+  </si>
+  <si>
     <t>SEMI_EQUIPPED</t>
   </si>
   <si>
     <t>AS_NEW</t>
   </si>
   <si>
+    <t>GOOD</t>
+  </si>
+  <si>
     <t>TO_BE_DONE_UP</t>
   </si>
   <si>
@@ -110,9 +191,6 @@
   </si>
   <si>
     <t>TO_RENOVATE</t>
-  </si>
-  <si>
-    <t>GOOD</t>
   </si>
 </sst>
 </file>
@@ -470,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,430 +612,1032 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9042175</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>9041095</v>
       </c>
-      <c r="D2">
-        <v>4860</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3">
         <v>320000</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2">
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="J2">
+      <c r="I3">
         <v>231</v>
       </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>30</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>1200</v>
       </c>
-      <c r="R2">
+      <c r="Q3">
         <v>1421</v>
       </c>
-      <c r="S2">
+      <c r="R3">
         <v>3</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>9042267</v>
-      </c>
-      <c r="D3">
-        <v>7181</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>325000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>130</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>30</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>600</v>
-      </c>
-      <c r="R3">
-        <v>1043</v>
-      </c>
-      <c r="S3">
-        <v>4</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>9042511</v>
-      </c>
-      <c r="D4">
-        <v>5340</v>
+        <v>9041098</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>569000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>324</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>57</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2202</v>
-      </c>
-      <c r="S4">
-        <v>4</v>
-      </c>
-      <c r="U4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>9040949</v>
-      </c>
-      <c r="D5">
-        <v>3271</v>
+        <v>9043036</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>230000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>195000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>226</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>25</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>150</v>
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>398</v>
-      </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="U5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>8949028</v>
-      </c>
-      <c r="D6">
-        <v>4870</v>
+        <v>9042950</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>349000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>235000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>350</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
+        <v>149</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>40</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>450</v>
+        <v>15</v>
       </c>
       <c r="R6">
-        <v>700</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="U6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>2</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>9039245</v>
-      </c>
-      <c r="D7">
-        <v>1330</v>
+        <v>9042267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>585000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>325000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>187</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7">
+        <v>130</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>600</v>
+      </c>
+      <c r="Q7">
+        <v>1043</v>
       </c>
       <c r="R7">
-        <v>483</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>4</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>9042073</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>320000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>130</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>14</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9042129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9042511</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>569000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>9042688</v>
-      </c>
-      <c r="D8">
-        <v>2845</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="I10">
+        <v>324</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>57</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>2202</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9034494</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>715000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9039019</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>1550000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>213</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>39</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9040949</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>230000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>226</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>25</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>150</v>
+      </c>
+      <c r="Q13">
+        <v>398</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>9039245</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>585000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>187</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>74</v>
+      </c>
+      <c r="Q14">
+        <v>483</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>9039312</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>358000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>85</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8997289</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>224500</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>8949028</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>349000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>350</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>40</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>450</v>
+      </c>
+      <c r="Q17">
+        <v>700</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>9039433</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18">
+        <v>780000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>135</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>8603832</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>9038507</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20">
+        <v>199000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>87</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>9037272</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>320000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>158</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="B22">
+        <v>9037648</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>9037183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>265000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>9037014</v>
+      </c>
+      <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>43</v>
-      </c>
-      <c r="R8">
-        <v>100</v>
-      </c>
-      <c r="S8">
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24">
+        <v>288000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" t="s">
-        <v>28</v>
+      <c r="I24">
+        <v>88</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
